--- a/data/trans_orig/PER_ESCASEZ_VERDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Clase-trans_orig.xlsx
@@ -10114,97 +10114,97 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1084</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>12,61%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>1139</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>1156</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_ESCASEZ_VERDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en País Vasco</t>
+          <t>Percepción de la escasez de zonas verdes en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3979,7 +3979,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en Andalucia</t>
+          <t>Percepción de la escasez de zonas verdes en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7413,7 +7413,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en C.Valenciana</t>
+          <t>Percepción de la escasez de zonas verdes en C.Valenciana (tasa de respuesta: 93,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_ESCASEZ_VERDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>126466</t>
+          <t>141298</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>122372</t>
+          <t>136702</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>130504</t>
+          <t>145854</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>125616</t>
+          <t>148527</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>121754</t>
+          <t>143706</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>129060</t>
+          <t>152771</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>86,04%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>252082</t>
+          <t>289825</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>246270</t>
+          <t>283487</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>257057</t>
+          <t>296285</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>86,22%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12016</t>
+          <t>13768</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9358</t>
+          <t>10301</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15398</t>
+          <t>17394</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11404</t>
+          <t>15642</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8714</t>
+          <t>12489</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14598</t>
+          <t>19684</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>23421</t>
+          <t>29410</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>19235</t>
+          <t>24814</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>27704</t>
+          <t>34485</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10741</t>
+          <t>12433</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8154</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13550</t>
+          <t>16142</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8969</t>
+          <t>11964</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6894</t>
+          <t>9205</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11903</t>
+          <t>15434</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>19710</t>
+          <t>24397</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>16233</t>
+          <t>20258</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>23898</t>
+          <t>29200</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67615</t>
+          <t>78734</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64362</t>
+          <t>75648</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71176</t>
+          <t>82031</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>84,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>81,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93112</t>
+          <t>105601</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>89349</t>
+          <t>101799</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>95928</t>
+          <t>109558</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>84,09%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>81,06%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>160727</t>
+          <t>184335</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>155429</t>
+          <t>179194</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>165285</t>
+          <t>189140</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>80,63%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,74%</t>
+          <t>86,58%</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7345</t>
+          <t>7274</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>5098</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10184</t>
+          <t>9683</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7622</t>
+          <t>9050</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5705</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10322</t>
+          <t>11529</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>14968</t>
+          <t>16324</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>11762</t>
+          <t>13101</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>18604</t>
+          <t>20010</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7683</t>
+          <t>6874</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5092</t>
+          <t>4890</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10244</t>
+          <t>9580</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9399</t>
+          <t>10934</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6961</t>
+          <t>8286</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12756</t>
+          <t>14097</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17082</t>
+          <t>17808</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>14001</t>
+          <t>14365</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21643</t>
+          <t>21756</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>9,96%</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1647,32 +1647,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>139090</t>
+          <t>132887</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>134769</t>
+          <t>128622</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>143229</t>
+          <t>137077</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,58%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,32 +1682,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>52156</t>
+          <t>50364</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>49050</t>
+          <t>47597</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>54633</t>
+          <t>52647</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,32 +1717,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>191247</t>
+          <t>183251</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>186156</t>
+          <t>178757</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>196176</t>
+          <t>188476</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>85,89%</t>
+          <t>86,24%</t>
         </is>
       </c>
     </row>
@@ -1760,32 +1760,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14050</t>
+          <t>13355</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10856</t>
+          <t>10429</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17867</t>
+          <t>17017</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1795,32 +1795,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7155</t>
+          <t>7194</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5210</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9608</t>
+          <t>9675</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1830,32 +1830,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>21205</t>
+          <t>20549</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>17650</t>
+          <t>16866</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>25830</t>
+          <t>24804</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11301</t>
+          <t>10936</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8362</t>
+          <t>8310</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14563</t>
+          <t>14004</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6841</t>
+          <t>5762</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>15950</t>
+          <t>14752</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>12581</t>
+          <t>11484</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>19731</t>
+          <t>18127</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,32 +2103,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>150639</t>
+          <t>150894</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>145885</t>
+          <t>146468</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>154697</t>
+          <t>154529</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,32 +2138,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>154146</t>
+          <t>161469</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>149540</t>
+          <t>157065</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>158224</t>
+          <t>165587</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>84,69%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,32 +2173,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>304785</t>
+          <t>312363</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>297870</t>
+          <t>306323</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>310665</t>
+          <t>317946</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>87,47%</t>
         </is>
       </c>
     </row>
@@ -2216,32 +2216,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13308</t>
+          <t>13003</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10174</t>
+          <t>10088</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17214</t>
+          <t>16523</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,32 +2251,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>14413</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10929</t>
+          <t>11411</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17772</t>
+          <t>18135</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,32 +2286,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>27298</t>
+          <t>27416</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>22560</t>
+          <t>23046</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>31956</t>
+          <t>31669</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -2329,32 +2329,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12151</t>
+          <t>11196</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9382</t>
+          <t>8902</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15766</t>
+          <t>14703</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13880</t>
+          <t>12512</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>10678</t>
+          <t>9946</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>17468</t>
+          <t>15741</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2399,32 +2399,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>26032</t>
+          <t>23708</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>22083</t>
+          <t>20225</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>30963</t>
+          <t>28101</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -2442,17 +2442,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2559,32 +2559,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>64489</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>61498</t>
+          <t>61201</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>67924</t>
+          <t>67415</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>77,76%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2594,32 +2594,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>112798</t>
+          <t>104626</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109059</t>
+          <t>100485</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>116550</t>
+          <t>108136</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2629,32 +2629,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>177819</t>
+          <t>169114</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>172547</t>
+          <t>163967</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>181981</t>
+          <t>173153</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>81,33%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>85,93%</t>
         </is>
       </c>
     </row>
@@ -2672,32 +2672,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6612</t>
+          <t>6294</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4523</t>
+          <t>4278</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9278</t>
+          <t>8800</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2707,32 +2707,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10123</t>
+          <t>10251</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7658</t>
+          <t>7738</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12955</t>
+          <t>13419</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2742,32 +2742,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>16735</t>
+          <t>16545</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>13679</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>21141</t>
+          <t>20468</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,16%</t>
         </is>
       </c>
     </row>
@@ -2785,32 +2785,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7456</t>
+          <t>6724</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5227</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10097</t>
+          <t>9264</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2820,32 +2820,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>10159</t>
+          <t>9127</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7750</t>
+          <t>7053</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>13248</t>
+          <t>12149</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2855,32 +2855,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>17616</t>
+          <t>15851</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>14225</t>
+          <t>12888</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>21391</t>
+          <t>19875</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2933,17 +2933,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2968,17 +2968,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3015,32 +3015,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>41412</t>
+          <t>44065</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>39264</t>
+          <t>40785</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43291</t>
+          <t>46091</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3050,32 +3050,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>104921</t>
+          <t>103887</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>101396</t>
+          <t>99841</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>107865</t>
+          <t>107267</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>85,54%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>84,3%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3085,32 +3085,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>146333</t>
+          <t>147952</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>142222</t>
+          <t>143341</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>149955</t>
+          <t>152104</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>84,99%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>88,08%</t>
         </is>
       </c>
     </row>
@@ -3128,32 +3128,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>2766</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5025</t>
+          <t>7135</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3163,32 +3163,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9459</t>
+          <t>11861</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>12492</t>
+          <t>15519</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3198,32 +3198,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>12684</t>
+          <t>16419</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>9799</t>
+          <t>12937</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>15933</t>
+          <t>20431</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>11,83%</t>
         </is>
       </c>
     </row>
@@ -3241,32 +3241,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2430</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3276,32 +3276,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>5898</t>
+          <t>5695</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>4131</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>8203</t>
+          <t>8343</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3311,32 +3311,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>8328</t>
+          <t>8318</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>6146</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>11051</t>
+          <t>11309</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -3354,17 +3354,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3471,32 +3471,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>590242</t>
+          <t>612368</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>581423</t>
+          <t>603650</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>598625</t>
+          <t>620610</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>84,49%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>83,68%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3506,67 +3506,67 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>642750</t>
+          <t>674472</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>634013</t>
+          <t>664317</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>651328</t>
+          <t>683066</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
+          <t>83,36%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>85,71%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>1286841</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>1274261</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>1299191</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>84,75%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
           <t>83,92%</t>
         </is>
       </c>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>86,22%</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>7181</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>1232991</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>1219568</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>1245720</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>84,8%</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>83,88%</t>
-        </is>
-      </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>85,67%</t>
+          <t>85,57%</t>
         </is>
       </c>
     </row>
@@ -3584,32 +3584,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>56557</t>
+          <t>58252</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>50210</t>
+          <t>51259</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>64049</t>
+          <t>65076</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3619,32 +3619,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>59753</t>
+          <t>68410</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>52748</t>
+          <t>61541</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>66901</t>
+          <t>76464</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3654,32 +3654,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>116311</t>
+          <t>126662</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>107745</t>
+          <t>116713</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>126252</t>
+          <t>136257</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>51762</t>
+          <t>50786</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>45909</t>
+          <t>45104</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>58238</t>
+          <t>57088</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3732,32 +3732,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>52955</t>
+          <t>54048</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>47258</t>
+          <t>47655</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>59383</t>
+          <t>60379</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3767,32 +3767,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>104717</t>
+          <t>104834</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>96458</t>
+          <t>95886</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>114732</t>
+          <t>113843</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -3810,17 +3810,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3845,17 +3845,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3880,17 +3880,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4174,12 +4174,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31055</t>
+          <t>30328</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56496</t>
+          <t>56412</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4189,12 +4189,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34593</t>
+          <t>35064</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>55972</t>
+          <t>56667</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4224,12 +4224,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>73010</t>
+          <t>71678</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>107034</t>
+          <t>104542</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -4287,12 +4287,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57703</t>
+          <t>56904</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89789</t>
+          <t>91267</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4302,12 +4302,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44474</t>
+          <t>44034</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66482</t>
+          <t>66698</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4337,12 +4337,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4357,12 +4357,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>108844</t>
+          <t>107379</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>149124</t>
+          <t>147331</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4372,12 +4372,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>22,16%</t>
         </is>
       </c>
     </row>
@@ -4400,12 +4400,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>233312</t>
+          <t>232093</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>270508</t>
+          <t>271913</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4415,12 +4415,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>63,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>74,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4435,12 +4435,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>185414</t>
+          <t>185636</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>211650</t>
+          <t>211738</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4450,12 +4450,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>62,18%</t>
+          <t>62,26%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>70,98%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4470,12 +4470,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>428024</t>
+          <t>427164</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>473823</t>
+          <t>474633</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4485,12 +4485,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>64,38%</t>
+          <t>64,25%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>71,39%</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4630,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26295</t>
+          <t>26049</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>51206</t>
+          <t>51762</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4645,12 +4645,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4665,12 +4665,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30258</t>
+          <t>30597</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>51301</t>
+          <t>49909</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4700,12 +4700,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>60942</t>
+          <t>63195</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>93949</t>
+          <t>96268</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4715,12 +4715,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,48%</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36983</t>
+          <t>37664</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65597</t>
+          <t>65111</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4758,12 +4758,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4778,12 +4778,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38754</t>
+          <t>38108</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60209</t>
+          <t>59778</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4793,12 +4793,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4813,12 +4813,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>82326</t>
+          <t>81804</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>116379</t>
+          <t>115495</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4828,12 +4828,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>19,77%</t>
         </is>
       </c>
     </row>
@@ -4856,12 +4856,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>217993</t>
+          <t>218855</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>254629</t>
+          <t>254309</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,27%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>78,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>158680</t>
+          <t>157493</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>184201</t>
+          <t>184636</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4906,12 +4906,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
+          <t>60,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>70,99%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4926,12 +4926,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>385992</t>
+          <t>387229</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>430199</t>
+          <t>429900</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4941,12 +4941,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>73,65%</t>
+          <t>73,6%</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6033</t>
+          <t>7611</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60865</t>
+          <t>62626</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5121,12 +5121,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7939</t>
+          <t>7519</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>18041</t>
+          <t>17522</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5136,12 +5136,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>12785</t>
+          <t>14536</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>77579</t>
+          <t>75053</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5171,12 +5171,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7041</t>
+          <t>9748</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75451</t>
+          <t>76030</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5214,12 +5214,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10066</t>
+          <t>9824</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22175</t>
+          <t>21441</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>15306</t>
+          <t>17571</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>91945</t>
+          <t>90379</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5284,12 +5284,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,77%</t>
         </is>
       </c>
     </row>
@@ -5312,12 +5312,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>343340</t>
+          <t>342760</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>461715</t>
+          <t>456358</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,22%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>62191</t>
+          <t>62382</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>76505</t>
+          <t>76455</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5362,12 +5362,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>78,42%</t>
+          <t>78,36%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5382,12 +5382,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>409396</t>
+          <t>411870</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>543356</t>
+          <t>539578</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>71,88%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>94,17%</t>
         </is>
       </c>
     </row>
@@ -5542,12 +5542,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32529</t>
+          <t>33365</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>60737</t>
+          <t>59514</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5557,12 +5557,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>76949</t>
+          <t>77224</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>490048</t>
+          <t>492755</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5592,12 +5592,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>76,97%</t>
+          <t>77,4%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5612,12 +5612,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>114312</t>
+          <t>114441</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>670142</t>
+          <t>659166</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5627,12 +5627,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>57,2%</t>
+          <t>56,26%</t>
         </is>
       </c>
     </row>
@@ -5655,12 +5655,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87505</t>
+          <t>87167</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>125890</t>
+          <t>126925</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5670,12 +5670,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5690,12 +5690,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>32252</t>
+          <t>28408</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>121811</t>
+          <t>121200</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5705,12 +5705,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5725,12 +5725,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>100214</t>
+          <t>99206</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>229954</t>
+          <t>229765</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5740,12 +5740,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -5768,12 +5768,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>359166</t>
+          <t>359820</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>405638</t>
+          <t>403459</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5783,12 +5783,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,14%</t>
+          <t>67,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>75,82%</t>
+          <t>75,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5803,12 +5803,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>113366</t>
+          <t>111918</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>447135</t>
+          <t>446205</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>70,09%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5838,12 +5838,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>397540</t>
+          <t>409547</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>840820</t>
+          <t>840488</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>71,74%</t>
         </is>
       </c>
     </row>
@@ -5998,12 +5998,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15474</t>
+          <t>16051</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34615</t>
+          <t>34654</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6013,12 +6013,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6033,12 +6033,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>23945</t>
+          <t>25422</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>58707</t>
+          <t>59465</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6068,12 +6068,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>45296</t>
+          <t>45587</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>86075</t>
+          <t>87319</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6083,12 +6083,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,72%</t>
         </is>
       </c>
     </row>
@@ -6111,12 +6111,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29723</t>
+          <t>31452</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55311</t>
+          <t>56579</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6126,12 +6126,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>78562</t>
+          <t>79516</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>253009</t>
+          <t>259857</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>59,61%</t>
+          <t>61,22%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6181,12 +6181,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>118916</t>
+          <t>118542</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>338835</t>
+          <t>329484</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>53,22%</t>
+          <t>51,75%</t>
         </is>
       </c>
     </row>
@@ -6224,12 +6224,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>130324</t>
+          <t>128706</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>159406</t>
+          <t>159359</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6239,12 +6239,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>60,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>75,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>145752</t>
+          <t>137793</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>294041</t>
+          <t>292029</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6274,47 +6274,47 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
+          <t>68,8%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>386069</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>263197</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>441063</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>60,64%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>41,34%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
           <t>69,28%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>386069</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>252309</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>442604</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>60,64%</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>39,63%</t>
-        </is>
-      </c>
-      <c r="W22" s="2" t="inlineStr">
-        <is>
-          <t>69,52%</t>
         </is>
       </c>
     </row>
@@ -6454,12 +6454,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7838</t>
+          <t>7176</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>36077</t>
+          <t>36544</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>29741</t>
+          <t>31632</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>56760</t>
+          <t>58153</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6504,12 +6504,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6524,12 +6524,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>43350</t>
+          <t>44337</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>81800</t>
+          <t>82717</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6539,12 +6539,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
@@ -6567,12 +6567,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>7874</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37120</t>
+          <t>36452</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6582,12 +6582,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6602,12 +6602,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68760</t>
+          <t>68146</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>99024</t>
+          <t>101833</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6617,12 +6617,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>81188</t>
+          <t>81908</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>124541</t>
+          <t>123871</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6652,12 +6652,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,83%</t>
         </is>
       </c>
     </row>
@@ -6680,12 +6680,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>110054</t>
+          <t>111130</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>146160</t>
+          <t>146691</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6695,12 +6695,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>66,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>87,96%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6715,12 +6715,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>347000</t>
+          <t>344684</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>383791</t>
+          <t>384072</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6730,12 +6730,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>70,17%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>78,14%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6750,12 +6750,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>470788</t>
+          <t>470887</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>523338</t>
+          <t>521633</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6765,12 +6765,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>71,55%</t>
+          <t>71,57%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>79,54%</t>
+          <t>79,28%</t>
         </is>
       </c>
     </row>
@@ -6910,12 +6910,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>127739</t>
+          <t>131069</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>237000</t>
+          <t>235157</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6925,12 +6925,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>254163</t>
+          <t>255893</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>981079</t>
+          <t>944003</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6960,12 +6960,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>427198</t>
+          <t>431243</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1178286</t>
+          <t>1209196</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6995,12 +6995,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>28,2%</t>
         </is>
       </c>
     </row>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>228779</t>
+          <t>205903</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>383226</t>
+          <t>378764</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7038,12 +7038,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>317422</t>
+          <t>318163</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>615011</t>
+          <t>594424</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7073,12 +7073,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>608205</t>
+          <t>605624</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>943572</t>
+          <t>918171</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7108,12 +7108,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>21,41%</t>
         </is>
       </c>
     </row>
@@ -7136,12 +7136,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1478566</t>
+          <t>1478642</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1740696</t>
+          <t>1741926</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>83,74%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>943963</t>
+          <t>984093</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>1531564</t>
+          <t>1533698</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7186,12 +7186,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>69,36%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>2499464</t>
+          <t>2495523</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>3154785</t>
+          <t>3154299</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>58,29%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>73,56%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_ESCASEZ_VERDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción de la escasez de zonas verdes en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>141298</t>
+          <t>267889</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>136702</t>
+          <t>245688</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>145854</t>
+          <t>288680</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>62,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>73,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>148527</t>
+          <t>212468</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>143706</t>
+          <t>198212</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>152771</t>
+          <t>227089</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>60,64%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>572</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>289825</t>
+          <t>480357</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>283487</t>
+          <t>455188</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>296285</t>
+          <t>506508</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>70,13%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13768</t>
+          <t>81542</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10301</t>
+          <t>64677</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17394</t>
+          <t>101587</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15642</t>
+          <t>63496</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12489</t>
+          <t>51722</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19684</t>
+          <t>77301</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>165</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>29410</t>
+          <t>145037</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>24814</t>
+          <t>126127</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>34485</t>
+          <t>168785</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>23,37%</t>
         </is>
       </c>
     </row>
@@ -956,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12433</t>
+          <t>45957</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>33499</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16142</t>
+          <t>62109</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11964</t>
+          <t>50916</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9205</t>
+          <t>40378</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15434</t>
+          <t>63494</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>116</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>24397</t>
+          <t>96873</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>20258</t>
+          <t>80216</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>29200</t>
+          <t>115098</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>15,94%</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1104,22 +1104,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>454</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1139,22 +1139,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>853</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78734</t>
+          <t>251570</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75648</t>
+          <t>234146</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82031</t>
+          <t>270363</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,77%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>68,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>261</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>105601</t>
+          <t>189103</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>101799</t>
+          <t>173635</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>109558</t>
+          <t>202712</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>81,06%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>70,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>509</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>184335</t>
+          <t>440672</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>179194</t>
+          <t>418469</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>189140</t>
+          <t>462857</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>73,32%</t>
         </is>
       </c>
     </row>
@@ -1299,107 +1299,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7274</t>
+          <t>54429</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5098</t>
+          <t>40241</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9683</t>
+          <t>69572</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9050</t>
+          <t>53660</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>42860</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11529</t>
+          <t>66510</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>16324</t>
+          <t>108089</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>13101</t>
+          <t>90087</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>20010</t>
+          <t>124956</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>19,79%</t>
         </is>
       </c>
     </row>
@@ -1412,107 +1412,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6874</t>
+          <t>38348</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4890</t>
+          <t>26232</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9580</t>
+          <t>53538</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10934</t>
+          <t>44177</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8286</t>
+          <t>33976</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14097</t>
+          <t>54864</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17808</t>
+          <t>82526</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>14365</t>
+          <t>66934</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21756</t>
+          <t>102630</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1560,22 +1560,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1595,22 +1595,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1642,107 +1642,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>132887</t>
+          <t>193381</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>128622</t>
+          <t>177072</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>137077</t>
+          <t>207121</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,55%</t>
+          <t>74,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>67,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>79,49%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50364</t>
+          <t>78988</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>47597</t>
+          <t>70559</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>52647</t>
+          <t>86595</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>82,06%</t>
+          <t>70,85%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>77,55%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>314</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>183251</t>
+          <t>272370</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>178757</t>
+          <t>255708</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>188476</t>
+          <t>287812</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>77,36%</t>
         </is>
       </c>
     </row>
@@ -1755,107 +1755,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13355</t>
+          <t>39078</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10429</t>
+          <t>27876</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17017</t>
+          <t>53458</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7194</t>
+          <t>18130</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5114</t>
+          <t>11905</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9675</t>
+          <t>25153</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>20549</t>
+          <t>57208</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>16866</t>
+          <t>44032</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>24804</t>
+          <t>72928</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>19,6%</t>
         </is>
       </c>
     </row>
@@ -1868,107 +1868,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10936</t>
+          <t>28097</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8310</t>
+          <t>18699</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14004</t>
+          <t>39907</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3817</t>
+          <t>14367</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>8988</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5762</t>
+          <t>20429</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>14752</t>
+          <t>42465</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>11484</t>
+          <t>32147</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>18127</t>
+          <t>56537</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>15,2%</t>
         </is>
       </c>
     </row>
@@ -1981,22 +1981,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2016,22 +2016,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2051,22 +2051,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2098,107 +2098,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>150894</t>
+          <t>435516</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>146468</t>
+          <t>410732</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>154529</t>
+          <t>459227</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>67,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>161469</t>
+          <t>333578</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>157065</t>
+          <t>315028</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>165587</t>
+          <t>351246</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>68,05%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>64,27%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>874</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>312363</t>
+          <t>769095</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>306323</t>
+          <t>737109</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>317946</t>
+          <t>800096</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>85,94%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>67,13%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>87,47%</t>
+          <t>72,87%</t>
         </is>
       </c>
     </row>
@@ -2211,107 +2211,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13003</t>
+          <t>117370</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10088</t>
+          <t>97672</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16523</t>
+          <t>139746</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14413</t>
+          <t>95069</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11411</t>
+          <t>79116</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18135</t>
+          <t>111739</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>227</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>27416</t>
+          <t>212439</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>23046</t>
+          <t>186083</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>31669</t>
+          <t>241195</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>21,97%</t>
         </is>
       </c>
     </row>
@@ -2324,107 +2324,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11196</t>
+          <t>54892</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8902</t>
+          <t>41202</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14703</t>
+          <t>72918</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12512</t>
+          <t>61533</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>9946</t>
+          <t>49740</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>15741</t>
+          <t>75955</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>130</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>23708</t>
+          <t>116425</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>20225</t>
+          <t>96177</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>28101</t>
+          <t>138927</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -2437,22 +2437,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2472,22 +2472,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>490180</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>490180</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>490180</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2507,22 +2507,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1097959</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1097959</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1097959</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2554,107 +2554,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>64489</t>
+          <t>172813</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>61201</t>
+          <t>156758</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>67415</t>
+          <t>188871</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>74,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>104626</t>
+          <t>267872</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>100485</t>
+          <t>248571</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>108136</t>
+          <t>282387</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>65,86%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,03%</t>
+          <t>61,11%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>69,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>550</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>169114</t>
+          <t>440685</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>163967</t>
+          <t>413961</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>173153</t>
+          <t>461141</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>81,37%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>69,76%</t>
         </is>
       </c>
     </row>
@@ -2667,107 +2667,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6294</t>
+          <t>49406</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4278</t>
+          <t>36642</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8800</t>
+          <t>64535</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10251</t>
+          <t>84517</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7738</t>
+          <t>71581</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13419</t>
+          <t>99224</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>165</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>16545</t>
+          <t>133923</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>13622</t>
+          <t>115970</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20468</t>
+          <t>157443</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>23,82%</t>
         </is>
       </c>
     </row>
@@ -2780,107 +2780,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6724</t>
+          <t>32110</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>21625</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9264</t>
+          <t>43978</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9127</t>
+          <t>54355</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7053</t>
+          <t>43067</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12149</t>
+          <t>68238</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>101</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>15851</t>
+          <t>86465</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>12888</t>
+          <t>70071</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>19875</t>
+          <t>105183</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>15,91%</t>
         </is>
       </c>
     </row>
@@ -2893,22 +2893,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,22 +2928,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>583</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>406744</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>406744</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>406744</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,22 +2963,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>661073</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>661073</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>661073</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3010,107 +3010,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44065</t>
+          <t>133762</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>40785</t>
+          <t>115689</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>46091</t>
+          <t>148874</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>85,99%</t>
+          <t>78,92%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>68,25%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>532</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>103887</t>
+          <t>412924</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>99841</t>
+          <t>389989</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>107267</t>
+          <t>431240</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>75,33%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>71,14%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>78,67%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>595</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>147952</t>
+          <t>546686</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>143341</t>
+          <t>517526</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>152104</t>
+          <t>570611</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>83,0%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>79,51%</t>
         </is>
       </c>
     </row>
@@ -3123,107 +3123,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>17101</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>7808</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7135</t>
+          <t>34012</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11861</t>
+          <t>90106</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>9034</t>
+          <t>75523</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>15519</t>
+          <t>110416</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>16419</t>
+          <t>107207</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>12937</t>
+          <t>89545</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>20431</t>
+          <t>131792</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>18,36%</t>
         </is>
       </c>
     </row>
@@ -3236,107 +3236,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2623</t>
+          <t>18634</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>8187</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>35750</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>5695</t>
+          <t>45132</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>33915</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>8343</t>
+          <t>60877</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>8318</t>
+          <t>63766</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>6146</t>
+          <t>47364</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>11309</t>
+          <t>86473</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>12,05%</t>
         </is>
       </c>
     </row>
@@ -3349,22 +3349,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3384,22 +3384,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3419,22 +3419,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3466,107 +3466,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3418</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>612368</t>
+          <t>1454931</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>603650</t>
+          <t>1408811</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>620610</t>
+          <t>1500229</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>84,89%</t>
+          <t>71,6%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>674472</t>
+          <t>1494934</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>664317</t>
+          <t>1451366</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>683066</t>
+          <t>1530383</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>68,88%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>66,87%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>70,51%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7181</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1286841</t>
+          <t>2949865</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1274261</t>
+          <t>2884388</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1299191</t>
+          <t>3015215</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>70,2%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>85,57%</t>
+          <t>71,75%</t>
         </is>
       </c>
     </row>
@@ -3579,107 +3579,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>58252</t>
+          <t>358925</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>51259</t>
+          <t>321991</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>65076</t>
+          <t>394728</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>540</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>68410</t>
+          <t>404978</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>61541</t>
+          <t>372875</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>76464</t>
+          <t>438669</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>865</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>126662</t>
+          <t>763903</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>116713</t>
+          <t>715659</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>136257</t>
+          <t>820535</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>19,53%</t>
         </is>
       </c>
     </row>
@@ -3692,107 +3692,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>50786</t>
+          <t>218038</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>45104</t>
+          <t>188157</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>57088</t>
+          <t>252526</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>355</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>54048</t>
+          <t>270481</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>47655</t>
+          <t>244290</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>60379</t>
+          <t>300363</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>550</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>104834</t>
+          <t>488520</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>95886</t>
+          <t>443145</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>113843</t>
+          <t>531870</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>12,66%</t>
         </is>
       </c>
     </row>
@@ -3805,22 +3805,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3840,22 +3840,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2170393</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2170393</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2170393</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3875,22 +3875,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4202287</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4202287</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4202287</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3979,7 +3979,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en Andalucia (tasa de respuesta: 99,82%)</t>
+          <t>Percepción de la escasez de zonas verdes en C.Valenciana (tasa de respuesta: 93,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4164,107 +4164,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42168</t>
+          <t>257442</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30328</t>
+          <t>246023</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56412</t>
+          <t>266063</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>385</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>45385</t>
+          <t>226801</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35064</t>
+          <t>215789</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>56667</t>
+          <t>236305</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>81,89%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>77,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>838</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>87553</t>
+          <t>484242</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>71678</t>
+          <t>470492</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>104542</t>
+          <t>498049</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>84,64%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>82,24%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>87,05%</t>
         </is>
       </c>
     </row>
@@ -4277,107 +4277,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72026</t>
+          <t>26080</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56904</t>
+          <t>19050</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91267</t>
+          <t>35541</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54433</t>
+          <t>31895</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44034</t>
+          <t>24526</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66698</t>
+          <t>40986</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>101</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>126459</t>
+          <t>57976</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>107379</t>
+          <t>47412</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>147331</t>
+          <t>70170</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>12,27%</t>
         </is>
       </c>
     </row>
@@ -4390,107 +4390,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>252488</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>232093</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>271913</t>
+          <t>19350</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,15%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>198353</t>
+          <t>18249</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>185636</t>
+          <t>11716</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>211738</t>
+          <t>25765</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>450842</t>
+          <t>29899</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>427164</t>
+          <t>22027</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>474633</t>
+          <t>40761</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>67,81%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>7,12%</t>
         </is>
       </c>
     </row>
@@ -4503,22 +4503,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4538,22 +4538,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4573,22 +4573,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4620,107 +4620,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37530</t>
+          <t>160129</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26049</t>
+          <t>151364</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>51762</t>
+          <t>168331</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>85,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39861</t>
+          <t>195049</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30597</t>
+          <t>185194</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>49909</t>
+          <t>202867</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>617</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>77391</t>
+          <t>355177</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>341856</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>96268</t>
+          <t>366047</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>85,58%</t>
         </is>
       </c>
     </row>
@@ -4733,107 +4733,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50846</t>
+          <t>27076</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37664</t>
+          <t>19905</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65111</t>
+          <t>34745</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47895</t>
+          <t>23361</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38108</t>
+          <t>16686</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>59778</t>
+          <t>31904</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>98741</t>
+          <t>50437</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>81804</t>
+          <t>40882</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>115495</t>
+          <t>62023</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -4846,107 +4846,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>235671</t>
+          <t>8568</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>218855</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>254309</t>
+          <t>14174</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>172325</t>
+          <t>13569</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>157493</t>
+          <t>8630</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>184636</t>
+          <t>20229</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>66,26%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>60,56%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>407996</t>
+          <t>22136</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>387229</t>
+          <t>15423</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>429900</t>
+          <t>30348</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>69,85%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -4959,22 +4959,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4994,22 +4994,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5029,22 +5029,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5076,107 +5076,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26995</t>
+          <t>152446</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7611</t>
+          <t>144228</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62626</t>
+          <t>159797</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12411</t>
+          <t>68359</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7519</t>
+          <t>62888</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17522</t>
+          <t>72712</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>83,04%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>422</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>39406</t>
+          <t>220805</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>14536</t>
+          <t>211316</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>75053</t>
+          <t>229455</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>80,45%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>87,35%</t>
         </is>
       </c>
     </row>
@@ -5194,102 +5194,102 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32917</t>
+          <t>16483</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9748</t>
+          <t>11257</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76030</t>
+          <t>22652</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15508</t>
+          <t>8188</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9824</t>
+          <t>4766</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21441</t>
+          <t>12479</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>48425</t>
+          <t>24670</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>17571</t>
+          <t>18439</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>90379</t>
+          <t>32000</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>12,18%</t>
         </is>
       </c>
     </row>
@@ -5302,107 +5302,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>415512</t>
+          <t>11422</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>342760</t>
+          <t>6688</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>456358</t>
+          <t>18603</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69645</t>
+          <t>5773</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>62382</t>
+          <t>3196</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>76455</t>
+          <t>11130</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>63,94%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>485157</t>
+          <t>17195</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>411870</t>
+          <t>11646</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>539578</t>
+          <t>25314</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -5415,22 +5415,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5450,22 +5450,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>501</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5532,107 +5532,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45104</t>
+          <t>251736</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33365</t>
+          <t>240272</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>59514</t>
+          <t>262163</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>81,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>78,22%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>85,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>456</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>261243</t>
+          <t>254554</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>77224</t>
+          <t>242252</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>492755</t>
+          <t>265792</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>932</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>306347</t>
+          <t>506290</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>114441</t>
+          <t>489095</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>659166</t>
+          <t>521490</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>56,26%</t>
+          <t>83,63%</t>
         </is>
       </c>
     </row>
@@ -5645,107 +5645,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>106109</t>
+          <t>37907</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87167</t>
+          <t>28969</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>126925</t>
+          <t>48005</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>76922</t>
+          <t>40668</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28408</t>
+          <t>30811</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>121200</t>
+          <t>50828</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>130</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>183032</t>
+          <t>78575</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>99206</t>
+          <t>65368</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>229765</t>
+          <t>93611</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>15,01%</t>
         </is>
       </c>
     </row>
@@ -5758,107 +5758,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>383758</t>
+          <t>17532</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>359820</t>
+          <t>12464</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>403459</t>
+          <t>24389</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>71,73%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>298473</t>
+          <t>21156</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>111918</t>
+          <t>14633</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>446205</t>
+          <t>29723</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>682231</t>
+          <t>38688</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>409547</t>
+          <t>29540</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>840488</t>
+          <t>49562</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -5871,22 +5871,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5906,22 +5906,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>556</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5941,22 +5941,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1171610</t>
+          <t>623553</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1171610</t>
+          <t>623553</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1171610</t>
+          <t>623553</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5988,107 +5988,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24694</t>
+          <t>124876</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>16051</t>
+          <t>116016</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34654</t>
+          <t>132251</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>77,2%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>214</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>44448</t>
+          <t>121070</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>25422</t>
+          <t>112038</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>59465</t>
+          <t>130031</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>84,15%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>433</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>69142</t>
+          <t>245946</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>45587</t>
+          <t>233772</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>87319</t>
+          <t>257572</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>80,69%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>84,5%</t>
         </is>
       </c>
     </row>
@@ -6101,107 +6101,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>42522</t>
+          <t>15216</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>31452</t>
+          <t>9374</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>56579</t>
+          <t>23879</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>138926</t>
+          <t>24014</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>79516</t>
+          <t>16620</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>259857</t>
+          <t>32202</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>181448</t>
+          <t>39230</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>118542</t>
+          <t>29774</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>329484</t>
+          <t>50749</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>16,65%</t>
         </is>
       </c>
     </row>
@@ -6214,107 +6214,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>145002</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>128706</t>
+          <t>6098</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>159359</t>
+          <t>16143</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>60,65%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>75,09%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>241067</t>
+          <t>9437</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>137793</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>292029</t>
+          <t>14834</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>386069</t>
+          <t>19630</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>263197</t>
+          <t>13081</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>441063</t>
+          <t>27529</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -6327,22 +6327,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6362,22 +6362,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>424440</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>424440</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>424440</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6397,22 +6397,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>526</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>636659</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>636659</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>636659</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6444,107 +6444,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>17762</t>
+          <t>7117</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7176</t>
+          <t>4665</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>36544</t>
+          <t>8242</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>54,25%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>42540</t>
+          <t>9517</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>31632</t>
+          <t>6429</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>58153</t>
+          <t>11190</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>83,47%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>56,38%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>60302</t>
+          <t>16635</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>44337</t>
+          <t>13294</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>82717</t>
+          <t>18786</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>66,47%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>93,92%</t>
         </is>
       </c>
     </row>
@@ -6557,107 +6557,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>17945</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7874</t>
+          <t>357</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>36452</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>82363</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68146</t>
+          <t>212</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>101833</t>
+          <t>4973</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>43,62%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>100308</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>81908</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>123871</t>
+          <t>6707</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>33,53%</t>
         </is>
       </c>
     </row>
@@ -6670,107 +6670,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>131054</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>111130</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>146691</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>78,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>66,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>87,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>366284</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>344684</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>384072</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>70,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>78,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>497338</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>470887</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>521633</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>71,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>79,28%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6783,22 +6783,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6818,22 +6818,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6853,22 +6853,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6900,107 +6900,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>194255</t>
+          <t>953745</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>131069</t>
+          <t>929950</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>235157</t>
+          <t>973171</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>81,76%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>445887</t>
+          <t>875350</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>255893</t>
+          <t>850763</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>944003</t>
+          <t>894572</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>83,33%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>640141</t>
+          <t>1829096</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>431243</t>
+          <t>1798120</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1209196</t>
+          <t>1856815</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>81,33%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>83,98%</t>
         </is>
       </c>
     </row>
@@ -7013,107 +7013,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>322366</t>
+          <t>124242</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>205903</t>
+          <t>107215</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>378764</t>
+          <t>142637</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>416047</t>
+          <t>130011</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>318163</t>
+          <t>114687</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>594424</t>
+          <t>151530</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>438</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>738412</t>
+          <t>254253</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>605624</t>
+          <t>231199</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>918171</t>
+          <t>281163</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -7126,107 +7126,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1563486</t>
+          <t>59366</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1478642</t>
+          <t>48000</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1741926</t>
+          <t>73969</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1346148</t>
+          <t>68183</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>984093</t>
+          <t>56606</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>1533698</t>
+          <t>83624</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>69,46%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>3414</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>2909634</t>
+          <t>127549</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>2495523</t>
+          <t>112123</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>3154299</t>
+          <t>147721</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>6,68%</t>
         </is>
       </c>
     </row>
@@ -7239,22 +7239,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>1137353</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>1137353</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>1137353</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7274,22 +7274,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2208081</t>
+          <t>1073545</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2208081</t>
+          <t>1073545</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2208081</t>
+          <t>1073545</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7309,22 +7309,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4288187</t>
+          <t>2210898</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4288187</t>
+          <t>2210898</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4288187</t>
+          <t>2210898</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -7413,7 +7413,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en C.Valenciana (tasa de respuesta: 93,69%)</t>
+          <t>Percepción de la escasez de zonas verdes en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7598,107 +7598,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>730</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>257442</t>
+          <t>141298</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>246023</t>
+          <t>136702</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>266063</t>
+          <t>145854</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,35%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>750</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>226801</t>
+          <t>148527</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>215789</t>
+          <t>143706</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>236305</t>
+          <t>152771</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>77,92%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>85,33%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>484242</t>
+          <t>289825</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>470492</t>
+          <t>283487</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>498049</t>
+          <t>296285</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>84,64%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>82,24%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>86,22%</t>
         </is>
       </c>
     </row>
@@ -7711,107 +7711,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26080</t>
+          <t>13768</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19050</t>
+          <t>10301</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35541</t>
+          <t>17394</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31895</t>
+          <t>15642</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24526</t>
+          <t>12489</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40986</t>
+          <t>19684</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>136</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>57976</t>
+          <t>29410</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>47412</t>
+          <t>24814</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>70170</t>
+          <t>34485</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -7824,107 +7824,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>12433</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19350</t>
+          <t>16142</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18249</t>
+          <t>11964</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11716</t>
+          <t>9205</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25765</t>
+          <t>15434</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>122</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>29899</t>
+          <t>24397</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>22027</t>
+          <t>20258</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>40761</t>
+          <t>29200</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -7937,22 +7937,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7972,22 +7972,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8007,22 +8007,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8054,107 +8054,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>160129</t>
+          <t>78734</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>151364</t>
+          <t>75648</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>168331</t>
+          <t>82031</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>84,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>81,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,98%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>195049</t>
+          <t>105601</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>185194</t>
+          <t>101799</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>202867</t>
+          <t>109558</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,08%</t>
+          <t>84,09%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>79,83%</t>
+          <t>81,06%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>355177</t>
+          <t>184335</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>341856</t>
+          <t>179194</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>366047</t>
+          <t>189140</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>86,58%</t>
         </is>
       </c>
     </row>
@@ -8167,107 +8167,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27076</t>
+          <t>7274</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19905</t>
+          <t>5098</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34745</t>
+          <t>9683</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23361</t>
+          <t>9050</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16686</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31904</t>
+          <t>11529</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>50437</t>
+          <t>16324</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>40882</t>
+          <t>13101</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>62023</t>
+          <t>20010</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -8280,107 +8280,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8568</t>
+          <t>6874</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>4890</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14174</t>
+          <t>9580</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13569</t>
+          <t>10934</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8630</t>
+          <t>8286</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20229</t>
+          <t>14097</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>22136</t>
+          <t>17808</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>15423</t>
+          <t>14365</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>30348</t>
+          <t>21756</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>9,96%</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -8428,22 +8428,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -8463,22 +8463,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -8510,107 +8510,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>788</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>152446</t>
+          <t>132887</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>144228</t>
+          <t>128622</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>159797</t>
+          <t>137077</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>79,97%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>302</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>68359</t>
+          <t>50364</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>62888</t>
+          <t>47597</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>72712</t>
+          <t>52647</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>220805</t>
+          <t>183251</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>211316</t>
+          <t>178757</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>229455</t>
+          <t>188476</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>84,06%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>86,24%</t>
         </is>
       </c>
     </row>
@@ -8623,107 +8623,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16483</t>
+          <t>13355</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11257</t>
+          <t>10429</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22652</t>
+          <t>17017</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8188</t>
+          <t>7194</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12479</t>
+          <t>9675</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>115</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>24670</t>
+          <t>20549</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18439</t>
+          <t>16866</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32000</t>
+          <t>24804</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -8736,107 +8736,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11422</t>
+          <t>10936</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6688</t>
+          <t>8310</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18603</t>
+          <t>14004</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5773</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3196</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11130</t>
+          <t>5762</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>17195</t>
+          <t>14752</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>11646</t>
+          <t>11484</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25314</t>
+          <t>18127</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -8849,22 +8849,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -8884,22 +8884,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8919,22 +8919,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8966,107 +8966,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>869</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>251736</t>
+          <t>150894</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>240272</t>
+          <t>146468</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>262163</t>
+          <t>154529</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>78,22%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>85,35%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>900</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>254554</t>
+          <t>161469</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>242252</t>
+          <t>157065</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>265792</t>
+          <t>165587</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>1769</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>506290</t>
+          <t>312363</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>489095</t>
+          <t>306323</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>521490</t>
+          <t>317946</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>81,19%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>78,44%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>87,47%</t>
         </is>
       </c>
     </row>
@@ -9079,107 +9079,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37907</t>
+          <t>13003</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28969</t>
+          <t>10088</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48005</t>
+          <t>16523</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40668</t>
+          <t>14413</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30811</t>
+          <t>11411</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50828</t>
+          <t>18135</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>150</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>78575</t>
+          <t>27416</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>65368</t>
+          <t>23046</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>93611</t>
+          <t>31669</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -9192,107 +9192,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17532</t>
+          <t>11196</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12464</t>
+          <t>8902</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24389</t>
+          <t>14703</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21156</t>
+          <t>12512</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>14633</t>
+          <t>9946</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>29723</t>
+          <t>15741</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>38688</t>
+          <t>23708</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>29540</t>
+          <t>20225</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>49562</t>
+          <t>28101</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -9305,22 +9305,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -9340,22 +9340,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -9375,22 +9375,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>623553</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>623553</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>623553</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -9422,107 +9422,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>124876</t>
+          <t>64489</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>116016</t>
+          <t>61201</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>132251</t>
+          <t>67415</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>631</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>121070</t>
+          <t>104626</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>112038</t>
+          <t>100485</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>130031</t>
+          <t>108136</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>245946</t>
+          <t>169114</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>233772</t>
+          <t>163967</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>257572</t>
+          <t>173153</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>80,69%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>85,93%</t>
         </is>
       </c>
     </row>
@@ -9535,107 +9535,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15216</t>
+          <t>6294</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9374</t>
+          <t>4278</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23879</t>
+          <t>8800</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10251</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7738</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>13419</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
           <t>6,24%</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>15,89%</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>24014</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>16620</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>32202</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>15,54%</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
-        </is>
-      </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>39230</t>
+          <t>16545</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>29774</t>
+          <t>13622</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>50749</t>
+          <t>20468</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>10,16%</t>
         </is>
       </c>
     </row>
@@ -9648,107 +9648,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10193</t>
+          <t>6724</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6098</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16143</t>
+          <t>9264</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9437</t>
+          <t>9127</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>7053</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>14834</t>
+          <t>12149</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>19630</t>
+          <t>15851</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>13081</t>
+          <t>12888</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>27529</t>
+          <t>19875</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -9761,22 +9761,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -9796,22 +9796,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -9831,22 +9831,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -9878,107 +9878,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7117</t>
+          <t>44065</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>40785</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>46091</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>82,77%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>54,25%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>607</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9517</t>
+          <t>103887</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>6429</t>
+          <t>99841</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>11190</t>
+          <t>107267</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>85,54%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>846</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>16635</t>
+          <t>147952</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>13294</t>
+          <t>143341</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>18786</t>
+          <t>152104</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>88,08%</t>
         </is>
       </c>
     </row>
@@ -9991,107 +9991,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>2766</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3934</t>
+          <t>7135</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>11861</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>9034</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>4973</t>
+          <t>15519</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>3366</t>
+          <t>16419</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>12937</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>20431</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>11,83%</t>
         </is>
       </c>
     </row>
@@ -10104,107 +10104,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5695</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8343</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8318</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6146</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11309</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -10217,22 +10217,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -10252,22 +10252,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -10287,22 +10287,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -10334,107 +10334,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>953745</t>
+          <t>612368</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>929950</t>
+          <t>603650</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>973171</t>
+          <t>620610</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>81,76%</t>
+          <t>83,68%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>875350</t>
+          <t>674472</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>850763</t>
+          <t>664317</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>894572</t>
+          <t>683066</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>79,25%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>83,33%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>3268</t>
+          <t>7181</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1829096</t>
+          <t>1286841</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1798120</t>
+          <t>1274261</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1856815</t>
+          <t>1299191</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>81,33%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>85,57%</t>
         </is>
       </c>
     </row>
@@ -10447,107 +10447,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>124242</t>
+          <t>58252</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>107215</t>
+          <t>51259</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>142637</t>
+          <t>65076</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>355</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>130011</t>
+          <t>68410</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>114687</t>
+          <t>61541</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>151530</t>
+          <t>76464</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>662</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>254253</t>
+          <t>126662</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>231199</t>
+          <t>116713</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>281163</t>
+          <t>136257</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -10560,107 +10560,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>59366</t>
+          <t>50786</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>48000</t>
+          <t>45104</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>73969</t>
+          <t>57088</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>68183</t>
+          <t>54048</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>56606</t>
+          <t>47655</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>83624</t>
+          <t>60379</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>583</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>127549</t>
+          <t>104834</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>112123</t>
+          <t>95886</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>147721</t>
+          <t>113843</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -10673,22 +10673,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1137353</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1137353</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1137353</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -10708,22 +10708,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1073545</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>1073545</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>1073545</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -10743,22 +10743,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>2210898</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>2210898</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>2210898</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
